--- a/Assets/StreamingAssets/TreasureDes.xlsx
+++ b/Assets/StreamingAssets/TreasureDes.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B43DC5-8DCC-4A0D-BB27-3DFB400A661C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BDB78C-4D81-48CB-8C53-3C14CC8A94D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,22 +26,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恢复8点血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>禁止敌方行动一回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>溢出的血量转化伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>再次获得6个数字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>造成20点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -50,26 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本局游戏中，生命上限提高10点并恢复10点血量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>恢复所有生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每获得6点护甲，对敌人造成4点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成伤害，伤害值等于护甲值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将生命值降至1点，其余生命值转为护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>双方受到的伤害加2点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,23 +50,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当你对自己造成伤害时，对敌方造成相同伤害，永续</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次受到伤害10%概率免疫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 造成伤害翻三倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无视敌方护甲（永续）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>溢出的生命值回复转化为伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每获得6点SAN值，对敌人造成4点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复8点生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次获得6个刚或柔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将生命值降至1点，其余生命值转为SAN值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无视敌方SAN值（永续）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你对自己造成伤害时，对敌方造成相同伤害（永续）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次受到伤害有10%概率免疫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得该宝物后，生命值上限提高10点并恢复10点血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成你当前SAN值的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 造成的伤害翻三倍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +426,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -440,41 +440,41 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -482,27 +482,27 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -510,27 +510,27 @@
         <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
